--- a/pred_ohlcv/54_21/2020-01-13 BHP ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-13 BHP ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>4525.18</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>7207.980000000001</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>9460.332879590002</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>9048.432879590002</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>9048.432879590002</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>9048.432879590002</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>9048.432879590002</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>10331.63287959</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>10556.83287959</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>10556.83287959</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>23184.58817958999</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>24418.88817958999</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>23460.63847958999</v>
       </c>
       <c r="H255">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>23460.63847958999</v>
       </c>
       <c r="H256">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>23443.93847958999</v>
       </c>
       <c r="H257">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>23616.53847958999</v>
       </c>
       <c r="H258">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>23591.63847958999</v>
       </c>
       <c r="H259">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>23591.63847958999</v>
       </c>
       <c r="H260">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>23706.23847958999</v>
       </c>
       <c r="H261">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>23706.23847958999</v>
       </c>
       <c r="H262">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>23704.20767958998</v>
       </c>
       <c r="H264">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>23832.20767958998</v>
       </c>
       <c r="H265">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>24139.60767958999</v>
       </c>
       <c r="H266">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>24934.90767958999</v>
       </c>
       <c r="H267">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -17578,7 +17578,7 @@
         <v>38945.07617958999</v>
       </c>
       <c r="H661">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="662" spans="1:8">
@@ -17604,7 +17604,7 @@
         <v>38945.07617958999</v>
       </c>
       <c r="H662">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="663" spans="1:8">
@@ -17630,7 +17630,7 @@
         <v>38933.47617958999</v>
       </c>
       <c r="H663">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="664" spans="1:8">
@@ -17656,7 +17656,7 @@
         <v>38933.47617958999</v>
       </c>
       <c r="H664">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="665" spans="1:8">
@@ -21920,7 +21920,7 @@
         <v>46559.40037958997</v>
       </c>
       <c r="H828">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="829" spans="1:8">
@@ -21972,7 +21972,7 @@
         <v>46549.40037958997</v>
       </c>
       <c r="H830">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="831" spans="1:8">
@@ -21998,7 +21998,7 @@
         <v>46549.40037958997</v>
       </c>
       <c r="H831">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="832" spans="1:8">
@@ -22024,7 +22024,7 @@
         <v>46542.40037958997</v>
       </c>
       <c r="H832">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="833" spans="1:8">
@@ -22102,7 +22102,7 @@
         <v>46943.90037958997</v>
       </c>
       <c r="H835">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="836" spans="1:8">
@@ -22128,7 +22128,7 @@
         <v>46943.90037958997</v>
       </c>
       <c r="H836">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="837" spans="1:8">
@@ -22154,7 +22154,7 @@
         <v>46943.90037958997</v>
       </c>
       <c r="H837">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="838" spans="1:8">
@@ -22180,7 +22180,7 @@
         <v>46943.90037958997</v>
       </c>
       <c r="H838">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="839" spans="1:8">
@@ -22206,7 +22206,7 @@
         <v>47583.50037958997</v>
       </c>
       <c r="H839">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="840" spans="1:8">
@@ -22232,7 +22232,7 @@
         <v>47420.00037958997</v>
       </c>
       <c r="H840">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="841" spans="1:8">
@@ -22258,7 +22258,7 @@
         <v>47436.10037958997</v>
       </c>
       <c r="H841">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="842" spans="1:8">
@@ -22284,7 +22284,7 @@
         <v>47414.90037958997</v>
       </c>
       <c r="H842">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="843" spans="1:8">
@@ -22336,7 +22336,7 @@
         <v>47414.90037958997</v>
       </c>
       <c r="H844">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="845" spans="1:8">
@@ -22440,7 +22440,7 @@
         <v>47414.90037958997</v>
       </c>
       <c r="H848">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="849" spans="1:8">
@@ -22856,7 +22856,7 @@
         <v>48920.80037958996</v>
       </c>
       <c r="H864">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="865" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-13 BHP ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-13 BHP ohlcv.xlsx
@@ -470,7 +470,7 @@
         <v>5215.18</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>5215.18</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>5215.18</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>5215.18</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>5215.18</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>5427.18</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>5427.18</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>5427.18</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>5677.18</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -756,7 +756,7 @@
         <v>6079.380000000001</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>6079.380000000001</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>6306.380000000001</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -860,7 +860,7 @@
         <v>6297.480000000001</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>6734.480000000001</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>7207.980000000001</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>7207.980000000001</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>7207.980000000001</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>7385.980000000001</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>9460.332879590002</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>9048.432879590002</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>9048.432879590002</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>9048.432879590002</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>9048.432879590002</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>10331.63287959</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>10556.83287959</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>10556.83287959</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>19258.48817959</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>23184.58817958999</v>
       </c>
       <c r="H199">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>24418.88817958999</v>
       </c>
       <c r="H237">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>23460.63847958999</v>
       </c>
       <c r="H255">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>23460.63847958999</v>
       </c>
       <c r="H256">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>23443.93847958999</v>
       </c>
       <c r="H257">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>23616.53847958999</v>
       </c>
       <c r="H258">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>23591.63847958999</v>
       </c>
       <c r="H259">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>23706.23847958999</v>
       </c>
       <c r="H261">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>23706.23847958999</v>
       </c>
       <c r="H262">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>23704.20767958998</v>
       </c>
       <c r="H264">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>23832.20767958998</v>
       </c>
       <c r="H265">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>24139.60767958999</v>
       </c>
       <c r="H266">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>24934.90767958999</v>
       </c>
       <c r="H267">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -17578,7 +17578,7 @@
         <v>38945.07617958999</v>
       </c>
       <c r="H661">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="662" spans="1:8">
@@ -17604,7 +17604,7 @@
         <v>38945.07617958999</v>
       </c>
       <c r="H662">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="663" spans="1:8">
@@ -17630,7 +17630,7 @@
         <v>38933.47617958999</v>
       </c>
       <c r="H663">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="664" spans="1:8">
@@ -17656,7 +17656,7 @@
         <v>38933.47617958999</v>
       </c>
       <c r="H664">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="665" spans="1:8">
@@ -18176,7 +18176,7 @@
         <v>39187.47617958999</v>
       </c>
       <c r="H684">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="685" spans="1:8">
@@ -18202,7 +18202,7 @@
         <v>39187.47617958999</v>
       </c>
       <c r="H685">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="686" spans="1:8">
@@ -18306,7 +18306,7 @@
         <v>39187.47617958999</v>
       </c>
       <c r="H689">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="690" spans="1:8">
@@ -18332,7 +18332,7 @@
         <v>39187.47617958999</v>
       </c>
       <c r="H690">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="691" spans="1:8">
@@ -18358,7 +18358,7 @@
         <v>39184.30677958999</v>
       </c>
       <c r="H691">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="692" spans="1:8">
@@ -18384,7 +18384,7 @@
         <v>39686.30677958999</v>
       </c>
       <c r="H692">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="693" spans="1:8">
@@ -18410,7 +18410,7 @@
         <v>39660.00677958999</v>
       </c>
       <c r="H693">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="694" spans="1:8">
@@ -18436,7 +18436,7 @@
         <v>39773.00677958999</v>
       </c>
       <c r="H694">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="695" spans="1:8">
@@ -18462,7 +18462,7 @@
         <v>39773.00677958999</v>
       </c>
       <c r="H695">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="696" spans="1:8">
@@ -18488,7 +18488,7 @@
         <v>39743.60677958999</v>
       </c>
       <c r="H696">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="697" spans="1:8">
@@ -18540,7 +18540,7 @@
         <v>39943.60677958999</v>
       </c>
       <c r="H698">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="699" spans="1:8">
@@ -18566,7 +18566,7 @@
         <v>39913.30677958998</v>
       </c>
       <c r="H699">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="700" spans="1:8">
@@ -18618,7 +18618,7 @@
         <v>40613.00677958998</v>
       </c>
       <c r="H701">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="702" spans="1:8">
@@ -18800,7 +18800,7 @@
         <v>40630.00677958998</v>
       </c>
       <c r="H708">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="709" spans="1:8">
@@ -18826,7 +18826,7 @@
         <v>40630.00677958998</v>
       </c>
       <c r="H709">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="710" spans="1:8">
@@ -18852,7 +18852,7 @@
         <v>40730.00677958998</v>
       </c>
       <c r="H710">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="711" spans="1:8">
@@ -18878,7 +18878,7 @@
         <v>40730.00677958998</v>
       </c>
       <c r="H711">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="712" spans="1:8">
@@ -18904,7 +18904,7 @@
         <v>40730.00677958998</v>
       </c>
       <c r="H712">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="713" spans="1:8">
@@ -18930,7 +18930,7 @@
         <v>40727.20677958998</v>
       </c>
       <c r="H713">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="714" spans="1:8">
@@ -18956,7 +18956,7 @@
         <v>40727.20677958998</v>
       </c>
       <c r="H714">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="715" spans="1:8">
@@ -18982,7 +18982,7 @@
         <v>40727.20677958998</v>
       </c>
       <c r="H715">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="716" spans="1:8">
@@ -19008,7 +19008,7 @@
         <v>40727.20677958998</v>
       </c>
       <c r="H716">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="717" spans="1:8">
@@ -19034,7 +19034,7 @@
         <v>40713.20677958998</v>
       </c>
       <c r="H717">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="718" spans="1:8">
@@ -19060,7 +19060,7 @@
         <v>40694.50677958998</v>
       </c>
       <c r="H718">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="719" spans="1:8">
@@ -19112,7 +19112,7 @@
         <v>40803.50677958998</v>
       </c>
       <c r="H720">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="721" spans="1:8">
@@ -19138,7 +19138,7 @@
         <v>40792.90677958998</v>
       </c>
       <c r="H721">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="722" spans="1:8">
@@ -21244,7 +21244,7 @@
         <v>45250.40037958997</v>
       </c>
       <c r="H802">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="803" spans="1:8">
@@ -21270,7 +21270,7 @@
         <v>45245.30037958997</v>
       </c>
       <c r="H803">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="804" spans="1:8">
@@ -21790,7 +21790,7 @@
         <v>45848.00037958997</v>
       </c>
       <c r="H823">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="824" spans="1:8">
@@ -21842,7 +21842,7 @@
         <v>46038.00037958997</v>
       </c>
       <c r="H825">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="826" spans="1:8">
@@ -21868,7 +21868,7 @@
         <v>46559.40037958997</v>
       </c>
       <c r="H826">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="827" spans="1:8">
@@ -21894,7 +21894,7 @@
         <v>46559.40037958997</v>
       </c>
       <c r="H827">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="828" spans="1:8">
@@ -21920,7 +21920,7 @@
         <v>46559.40037958997</v>
       </c>
       <c r="H828">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="829" spans="1:8">
@@ -21946,7 +21946,7 @@
         <v>46559.40037958997</v>
       </c>
       <c r="H829">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="830" spans="1:8">
@@ -21972,7 +21972,7 @@
         <v>46549.40037958997</v>
       </c>
       <c r="H830">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="831" spans="1:8">
@@ -21998,7 +21998,7 @@
         <v>46549.40037958997</v>
       </c>
       <c r="H831">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="832" spans="1:8">
@@ -22024,7 +22024,7 @@
         <v>46542.40037958997</v>
       </c>
       <c r="H832">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="833" spans="1:8">
@@ -22050,7 +22050,7 @@
         <v>46943.90037958997</v>
       </c>
       <c r="H833">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="834" spans="1:8">
@@ -22076,7 +22076,7 @@
         <v>46943.90037958997</v>
       </c>
       <c r="H834">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="835" spans="1:8">
@@ -22102,7 +22102,7 @@
         <v>46943.90037958997</v>
       </c>
       <c r="H835">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="836" spans="1:8">
@@ -22128,7 +22128,7 @@
         <v>46943.90037958997</v>
       </c>
       <c r="H836">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="837" spans="1:8">
@@ -22154,7 +22154,7 @@
         <v>46943.90037958997</v>
       </c>
       <c r="H837">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="838" spans="1:8">
@@ -22180,7 +22180,7 @@
         <v>46943.90037958997</v>
       </c>
       <c r="H838">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="839" spans="1:8">
@@ -22206,7 +22206,7 @@
         <v>47583.50037958997</v>
       </c>
       <c r="H839">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="840" spans="1:8">
@@ -22232,7 +22232,7 @@
         <v>47420.00037958997</v>
       </c>
       <c r="H840">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="841" spans="1:8">
@@ -22258,7 +22258,7 @@
         <v>47436.10037958997</v>
       </c>
       <c r="H841">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="842" spans="1:8">
@@ -22284,7 +22284,7 @@
         <v>47414.90037958997</v>
       </c>
       <c r="H842">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="843" spans="1:8">
@@ -22310,7 +22310,7 @@
         <v>47414.90037958997</v>
       </c>
       <c r="H843">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="844" spans="1:8">
@@ -22336,7 +22336,7 @@
         <v>47414.90037958997</v>
       </c>
       <c r="H844">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="845" spans="1:8">
@@ -22362,7 +22362,7 @@
         <v>47414.90037958997</v>
       </c>
       <c r="H845">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="846" spans="1:8">
@@ -22388,7 +22388,7 @@
         <v>47414.90037958997</v>
       </c>
       <c r="H846">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="847" spans="1:8">
@@ -22414,7 +22414,7 @@
         <v>47414.90037958997</v>
       </c>
       <c r="H847">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="848" spans="1:8">
@@ -22440,7 +22440,7 @@
         <v>47414.90037958997</v>
       </c>
       <c r="H848">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="849" spans="1:8">
@@ -22466,7 +22466,7 @@
         <v>47414.90037958997</v>
       </c>
       <c r="H849">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="850" spans="1:8">
@@ -22492,7 +22492,7 @@
         <v>47405.10037958997</v>
       </c>
       <c r="H850">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="851" spans="1:8">
@@ -22518,7 +22518,7 @@
         <v>47405.10037958997</v>
       </c>
       <c r="H851">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="852" spans="1:8">
@@ -22700,7 +22700,7 @@
         <v>48056.70037958997</v>
       </c>
       <c r="H858">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="859" spans="1:8">
@@ -22726,7 +22726,7 @@
         <v>48240.60037958997</v>
       </c>
       <c r="H859">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="860" spans="1:8">
@@ -22752,7 +22752,7 @@
         <v>48240.60037958997</v>
       </c>
       <c r="H860">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="861" spans="1:8">
@@ -22778,7 +22778,7 @@
         <v>48233.80037958996</v>
       </c>
       <c r="H861">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="862" spans="1:8">
@@ -22804,7 +22804,7 @@
         <v>48921.90037958996</v>
       </c>
       <c r="H862">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="863" spans="1:8">
@@ -22830,7 +22830,7 @@
         <v>48921.90037958996</v>
       </c>
       <c r="H863">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="864" spans="1:8">
@@ -22856,7 +22856,7 @@
         <v>48920.80037958996</v>
       </c>
       <c r="H864">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="865" spans="1:8">
@@ -22882,7 +22882,7 @@
         <v>48920.80037958996</v>
       </c>
       <c r="H865">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="866" spans="1:8">
@@ -22908,7 +22908,7 @@
         <v>48920.80037958996</v>
       </c>
       <c r="H866">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="867" spans="1:8">
@@ -22934,7 +22934,7 @@
         <v>48920.80037958996</v>
       </c>
       <c r="H867">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="868" spans="1:8">
@@ -22960,7 +22960,7 @@
         <v>48920.80037958996</v>
       </c>
       <c r="H868">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="869" spans="1:8">
@@ -23428,7 +23428,7 @@
         <v>50421.10037958997</v>
       </c>
       <c r="H886">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="887" spans="1:8">
@@ -23610,7 +23610,7 @@
         <v>50909.10037958996</v>
       </c>
       <c r="H893">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="894" spans="1:8">
@@ -23818,7 +23818,7 @@
         <v>50909.10037958996</v>
       </c>
       <c r="H901">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="902" spans="1:8">
